--- a/BOB_V1 Relay pin config.xlsx
+++ b/BOB_V1 Relay pin config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGEL\Documents\GitHub\BOB_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA195323-0DC7-46AC-87B3-757AD0CD9D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6ADBB-2794-4B3B-A241-CACC6226D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{030D4EAC-458A-49D4-A575-EAC0F8B04AB6}"/>
   </bookViews>
@@ -984,7 +984,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="F41" sqref="F40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
